--- a/泸州老窖/财务指标_老窖.xlsx
+++ b/泸州老窖/财务指标_老窖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="折旧对比" sheetId="13" r:id="rId1"/>
@@ -25850,6 +25850,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="N6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>报告期投资额，没有看出投资项目</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R6" authorId="0">
       <text>
         <r>
@@ -28013,7 +28047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1120">
   <si>
     <t>总资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30320,11 +30354,6 @@
   </si>
   <si>
     <t>报告期内，公司普通股股份总数及股本结构未发生变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司正式员工总数为21237人
-(16.3-9.8+46.7) / 21237  人均薪酬25.1万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34797,186 +34826,6 @@
       </rPr>
       <t xml:space="preserve">亿
 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、中国贵州茅台酒厂（集团）有限责任公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">61.99%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>香港中央结算有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  5.53%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国证券金融股份有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  2.57%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贵州茅台酒厂集团技术开发公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 2.21%
-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、贵州省人民政府国有资产监督管理委员会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 100% -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国贵州茅台酒厂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>集团</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有限责任公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 61.99% -&gt;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贵州茅台酒股份有限公司</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50514,223 +50363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报告期投资额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亿，变动幅度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">48.05%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证券投资情况</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国泰君安</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  2.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自有资金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可供出售金融资产
-北化股份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 0.22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自有资金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可供出售金融资产</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">承诺投资项目和超募资金投向  中国酒城老酒镇第一期项目
 募集资金承诺投资总额  1.02亿
 调整后投资总额  2.26亿(该金额为项目预计投资总额，不足部分由自有资金补足)
@@ -51189,15 +50821,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有限售条件股份  0% -&gt; 0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有限售条件股份  0.13% -&gt; 0.03%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限售条件股份  99.87% -&gt; 99.97%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57244,6 +56868,464 @@
       </rPr>
       <t>月。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告期投资额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿，变动幅度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">48.05%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证券投资情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国泰君安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  2.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自有资金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可供出售金融资产
+北化股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自有资金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可供出售金融资产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限售条件股份  0.03% -&gt; 0.03%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限售条件股份  99.87% -&gt; 99.97%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限售条件股份  99.97% -&gt; 99.97%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、泸州老窖集团有限责任公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  28.11%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泸州市兴泸投资集团有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  26.1%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泸州市国有资产监督管理委员会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  0.08%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国证券金融股份有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  1.77%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中央汇金资产管理有限责任公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  1.49%
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、泸州市国有资产监督管理委员会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100% -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泸州老窖集团有限责任公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 28.11% -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泸州老窖股份有限公司
+泸州市国有资产监督管理委员会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100% -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泸州市兴泸投资集团有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  26.1% -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泸州老窖股份有限公司
+泸州市国有资产监督管理委员会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  0.08% -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泸州老窖股份有限公司
+实际控制人泸州市国有资产监督管理委员会占用股份与上期一致</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司正式员工总数为2009人
+(1.3-0.86+2.8) / 2009  人均薪酬16.1万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57361,7 +57443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -57597,14 +57679,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -57613,10 +57701,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -57627,22 +57727,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -57988,10 +58073,10 @@
         <v>2015</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -58050,10 +58135,10 @@
   <dimension ref="A3:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11:E12"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -58071,10 +58156,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="8" t="s">
         <v>128</v>
       </c>
@@ -58086,7 +58171,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="99">
+      <c r="A5" s="94">
         <v>2012</v>
       </c>
       <c r="B5" s="4"/>
@@ -58094,7 +58179,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="99"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="13"/>
       <c r="C6" s="54"/>
       <c r="D6" s="4"/>
@@ -58102,7 +58187,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="99">
+      <c r="A7" s="94">
         <v>2013</v>
       </c>
       <c r="B7" s="1"/>
@@ -58110,7 +58195,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="99"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="4"/>
       <c r="C8" s="37"/>
       <c r="D8" s="4"/>
@@ -58118,144 +58203,160 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A9" s="99">
+      <c r="A9" s="94">
         <v>2014</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="100"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="96"/>
     </row>
     <row r="10" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A10" s="99"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="5"/>
       <c r="C10" s="41"/>
       <c r="D10" s="98"/>
-      <c r="E10" s="100"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="99">
+      <c r="A11" s="94">
         <v>2015</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>947</v>
+        <v>1116</v>
       </c>
       <c r="D11" s="89"/>
-      <c r="E11" s="97" t="s">
-        <v>949</v>
+      <c r="E11" s="95" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="163.5" customHeight="1">
-      <c r="A12" s="99"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="5" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="97"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="92">
+      <c r="A13" s="99">
         <v>2016</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="94" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D13" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="97" t="s">
-        <v>463</v>
+      <c r="E13" s="95" t="s">
+        <v>1118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="170.25" customHeight="1">
-      <c r="A14" s="92"/>
+    <row r="14" spans="1:6" ht="219" customHeight="1">
+      <c r="A14" s="99"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="92"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="98"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="92">
+      <c r="A15" s="99">
         <v>2017</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C15" s="93" t="s">
+        <v>600</v>
+      </c>
+      <c r="C15" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="E15" s="97" t="s">
-        <v>605</v>
+      <c r="E15" s="95" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="171" customHeight="1">
-      <c r="A16" s="92"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="98"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A17" s="92">
+      <c r="A17" s="99">
         <v>2018</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C17" s="93" t="s">
+        <v>775</v>
+      </c>
+      <c r="C17" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="94" t="s">
-        <v>603</v>
-      </c>
-      <c r="E17" s="97" t="s">
-        <v>604</v>
+      <c r="D17" s="100" t="s">
+        <v>601</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="180" customHeight="1">
-      <c r="A18" s="92"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="92"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="98"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="92">
+      <c r="A19" s="99">
         <v>2019</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="95" t="s">
-        <v>778</v>
+      <c r="E19" s="101" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="138.75" customHeight="1">
-      <c r="A20" s="92"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="96"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="E11:E12"/>
@@ -58265,22 +58366,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58293,11 +58378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -58333,15 +58418,15 @@
         <v>2015</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="41.25">
+    <row r="6" spans="1:2" ht="27.75">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42">
@@ -58349,7 +58434,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="54.75">
@@ -58357,7 +58442,7 @@
         <v>2018</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="54.75">
@@ -58365,7 +58450,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -58395,7 +58480,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>232</v>
@@ -58446,19 +58531,19 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C7" t="s">
+        <v>781</v>
+      </c>
+      <c r="D7" t="s">
         <v>782</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>783</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>784</v>
-      </c>
-      <c r="E7" t="s">
-        <v>785</v>
-      </c>
-      <c r="F7" t="s">
-        <v>786</v>
       </c>
       <c r="G7">
         <v>0.1474</v>
@@ -58469,19 +58554,19 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C8" t="s">
+        <v>786</v>
+      </c>
+      <c r="D8" t="s">
         <v>787</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>788</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>789</v>
-      </c>
-      <c r="E8" t="s">
-        <v>790</v>
-      </c>
-      <c r="F8" t="s">
-        <v>791</v>
       </c>
       <c r="G8">
         <v>0.1779</v>
@@ -58492,19 +58577,19 @@
         <v>2917</v>
       </c>
       <c r="B9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D9" t="s">
         <v>792</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>793</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>794</v>
-      </c>
-      <c r="E9" t="s">
-        <v>795</v>
-      </c>
-      <c r="F9" t="s">
-        <v>796</v>
       </c>
       <c r="G9">
         <v>0.20300000000000001</v>
@@ -58515,19 +58600,19 @@
         <v>2018</v>
       </c>
       <c r="B10" t="s">
+        <v>795</v>
+      </c>
+      <c r="C10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D10" t="s">
         <v>797</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>798</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>799</v>
-      </c>
-      <c r="E10" t="s">
-        <v>800</v>
-      </c>
-      <c r="F10" t="s">
-        <v>801</v>
       </c>
       <c r="G10">
         <v>0.21809999999999999</v>
@@ -58538,19 +58623,19 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C11" t="s">
+        <v>801</v>
+      </c>
+      <c r="D11" t="s">
         <v>802</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>803</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>804</v>
-      </c>
-      <c r="E11" t="s">
-        <v>805</v>
-      </c>
-      <c r="F11" t="s">
-        <v>806</v>
       </c>
       <c r="G11">
         <v>0.255</v>
@@ -58558,7 +58643,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -58660,10 +58745,10 @@
         <v>260</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>11</v>
@@ -58735,7 +58820,7 @@
         <v>92</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>89</v>
@@ -58829,119 +58914,119 @@
         <v>2015</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F7" t="s">
+        <v>809</v>
+      </c>
+      <c r="G7" t="s">
         <v>810</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>809</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="J7" t="s">
         <v>811</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>812</v>
       </c>
-      <c r="H7" t="s">
-        <v>811</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>871</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>813</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" s="49" t="s">
+        <v>926</v>
+      </c>
+      <c r="R7" t="s">
         <v>814</v>
       </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
         <v>815</v>
       </c>
-      <c r="P7" s="49" t="s">
-        <v>928</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="U7" t="s">
         <v>816</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>817</v>
       </c>
-      <c r="U7" t="s">
+      <c r="Z7" t="s">
+        <v>812</v>
+      </c>
+      <c r="AA7" t="s">
         <v>818</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AB7" t="s">
         <v>819</v>
       </c>
-      <c r="Z7" t="s">
-        <v>814</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
+        <v>783</v>
+      </c>
+      <c r="AH7" t="s">
         <v>820</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AI7" t="s">
         <v>821</v>
       </c>
-      <c r="AC7" t="s">
-        <v>785</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>822</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>823</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AM7" t="s">
         <v>824</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AN7" t="s">
         <v>825</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>826</v>
       </c>
-      <c r="AN7" t="s">
-        <v>827</v>
-      </c>
-      <c r="AO7" t="s">
+      <c r="AS7" t="s">
         <v>828</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
+        <v>829</v>
+      </c>
+      <c r="AU7" t="s">
         <v>830</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AW7" t="s">
         <v>831</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AX7" t="s">
         <v>832</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>833</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>834</v>
       </c>
       <c r="AZ7" s="6">
         <v>1402252476</v>
       </c>
       <c r="BA7" t="s">
+        <v>833</v>
+      </c>
+      <c r="BC7" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="BD7" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="BF7" t="s">
         <v>835</v>
       </c>
-      <c r="BC7" s="40" t="s">
+      <c r="BG7" t="s">
+        <v>784</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>822</v>
+      </c>
+      <c r="BI7" t="s">
         <v>836</v>
-      </c>
-      <c r="BD7" s="31" t="s">
-        <v>872</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>837</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>786</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>824</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="8" spans="1:61">
@@ -58949,119 +59034,119 @@
         <v>2016</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D8" s="79"/>
       <c r="E8" t="s">
+        <v>947</v>
+      </c>
+      <c r="F8" t="s">
+        <v>948</v>
+      </c>
+      <c r="G8" t="s">
+        <v>949</v>
+      </c>
+      <c r="H8" t="s">
+        <v>950</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>951</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L8" t="s">
         <v>952</v>
       </c>
-      <c r="F8" t="s">
+      <c r="M8" t="s">
         <v>953</v>
       </c>
-      <c r="G8" t="s">
+      <c r="P8" s="49" t="s">
         <v>954</v>
       </c>
-      <c r="H8" t="s">
+      <c r="R8" t="s">
         <v>955</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="T8" t="s">
         <v>956</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="U8" t="s">
         <v>957</v>
       </c>
-      <c r="M8" t="s">
+      <c r="W8" t="s">
         <v>958</v>
       </c>
-      <c r="P8" s="49" t="s">
+      <c r="Z8" t="s">
         <v>959</v>
       </c>
-      <c r="R8" t="s">
+      <c r="AA8" t="s">
         <v>960</v>
       </c>
-      <c r="T8" t="s">
+      <c r="AB8" t="s">
         <v>961</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AC8" t="s">
         <v>962</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AH8" t="s">
         <v>963</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AI8" t="s">
         <v>964</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AJ8" t="s">
         <v>965</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AK8" t="s">
         <v>966</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AM8" t="s">
         <v>967</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AN8" s="31" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AO8" t="s">
         <v>968</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AS8" t="s">
         <v>969</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AT8" t="s">
         <v>970</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AU8" t="s">
         <v>971</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AW8" t="s">
         <v>972</v>
       </c>
-      <c r="AN8" s="31" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AX8" t="s">
         <v>973</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>974</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>975</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>976</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>977</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>978</v>
       </c>
       <c r="AZ8" s="6">
         <v>1402252476</v>
       </c>
       <c r="BA8" s="31" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="BC8" s="40" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="BD8" s="49" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="BF8" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="BG8" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="BH8" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="BI8" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -59069,88 +59154,88 @@
         <v>2017</v>
       </c>
       <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" t="s">
         <v>327</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" t="s">
         <v>328</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>330</v>
       </c>
-      <c r="H9" t="s">
-        <v>329</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>331</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>332</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>333</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>334</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>335</v>
       </c>
-      <c r="P9" t="s">
+      <c r="T9" t="s">
         <v>336</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>337</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>338</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>339</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>340</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>341</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>342</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AF9" t="s">
         <v>343</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>344</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>345</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>346</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>347</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>348</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AN9" t="s">
         <v>349</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>350</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AR9" t="s">
         <v>351</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AW9" t="s">
         <v>352</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>353</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>354</v>
       </c>
       <c r="AZ9" s="6">
         <v>1256197800</v>
@@ -59160,22 +59245,22 @@
       </c>
       <c r="BC9" s="40"/>
       <c r="BD9" t="s">
+        <v>354</v>
+      </c>
+      <c r="BE9" t="s">
         <v>355</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>356</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>357</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BH9" t="s">
         <v>358</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>359</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:61">
@@ -59183,77 +59268,77 @@
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10" t="s">
+        <v>465</v>
+      </c>
+      <c r="I10" t="s">
         <v>466</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>467</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>468</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>469</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>470</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>471</v>
       </c>
-      <c r="O10" t="s">
+      <c r="T10" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="P10" t="s">
+      <c r="U10" t="s">
         <v>473</v>
       </c>
-      <c r="T10" s="49" t="s">
+      <c r="W10" t="s">
         <v>474</v>
       </c>
-      <c r="U10" t="s">
+      <c r="Y10" t="s">
         <v>475</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>476</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AB10" t="s">
         <v>477</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AC10" t="s">
         <v>478</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AF10" t="s">
         <v>479</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>480</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>481</v>
       </c>
       <c r="AG10" s="43"/>
       <c r="AH10" s="43" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AI10" t="s">
+        <v>480</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>481</v>
+      </c>
+      <c r="AK10" t="s">
         <v>482</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AN10" t="s">
         <v>483</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AO10" t="s">
         <v>484</v>
       </c>
-      <c r="AN10" t="s">
-        <v>485</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>486</v>
-      </c>
       <c r="AX10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AZ10" s="6">
         <v>1256197800</v>
@@ -59262,22 +59347,22 @@
         <v>284</v>
       </c>
       <c r="BD10" t="s">
+        <v>485</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>486</v>
+      </c>
+      <c r="BF10" t="s">
         <v>487</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BG10" t="s">
         <v>488</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BH10" t="s">
         <v>489</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BI10" t="s">
         <v>490</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>491</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:61">
@@ -59285,109 +59370,109 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G11" t="s">
         <v>609</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="I11" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="J11" t="s">
         <v>610</v>
       </c>
-      <c r="G11" t="s">
+      <c r="L11" t="s">
         <v>611</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>612</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>613</v>
       </c>
-      <c r="M11" t="s">
+      <c r="S11" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="T11" s="49" t="s">
         <v>614</v>
       </c>
-      <c r="O11" t="s">
+      <c r="U11" t="s">
         <v>615</v>
       </c>
-      <c r="S11" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="T11" s="49" t="s">
+      <c r="W11" t="s">
         <v>616</v>
       </c>
-      <c r="U11" t="s">
+      <c r="Y11" t="s">
         <v>617</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>618</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AB11" t="s">
         <v>619</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AC11" t="s">
         <v>620</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AF11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AH11" s="43" t="s">
         <v>621</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AI11" t="s">
         <v>622</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AJ11" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK11" t="s">
         <v>625</v>
       </c>
-      <c r="AH11" s="43" t="s">
-        <v>623</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>624</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AN11" t="s">
         <v>626</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AO11" t="s">
         <v>627</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AU11" t="s">
         <v>628</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AW11" t="s">
+        <v>628</v>
+      </c>
+      <c r="AX11" t="s">
         <v>629</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>630</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>630</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>631</v>
       </c>
       <c r="AZ11" s="6">
         <v>1256197800</v>
       </c>
       <c r="BA11" t="s">
+        <v>630</v>
+      </c>
+      <c r="BD11" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>631</v>
+      </c>
+      <c r="BF11" t="s">
         <v>632</v>
       </c>
-      <c r="BD11" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="BE11" t="s">
+      <c r="BG11" t="s">
         <v>633</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BH11" t="s">
         <v>634</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BI11" t="s">
         <v>635</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>636</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -59566,58 +59651,58 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J7" s="49" t="s">
+        <v>837</v>
+      </c>
+      <c r="K7" t="s">
+        <v>838</v>
+      </c>
+      <c r="L7" t="s">
         <v>839</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>840</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>841</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>842</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>843</v>
       </c>
-      <c r="P7" t="s">
+      <c r="AA7" t="s">
+        <v>786</v>
+      </c>
+      <c r="AC7" t="s">
         <v>844</v>
       </c>
-      <c r="S7" t="s">
+      <c r="AD7" t="s">
         <v>845</v>
       </c>
-      <c r="AA7" t="s">
-        <v>788</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>846</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AG7" t="s">
         <v>847</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AH7" t="s">
         <v>848</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
+        <v>781</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>849</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>850</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>783</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>851</v>
       </c>
       <c r="AK7" s="2">
         <v>0.76200000000000001</v>
@@ -59628,58 +59713,58 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
+        <v>978</v>
+      </c>
+      <c r="E8" t="s">
+        <v>978</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>979</v>
+      </c>
+      <c r="K8" t="s">
+        <v>980</v>
+      </c>
+      <c r="L8" t="s">
+        <v>981</v>
+      </c>
+      <c r="N8" t="s">
+        <v>982</v>
+      </c>
+      <c r="O8" t="s">
         <v>983</v>
       </c>
-      <c r="E8" t="s">
-        <v>983</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J8" s="49" t="s">
+      <c r="P8" t="s">
         <v>984</v>
       </c>
-      <c r="K8" t="s">
+      <c r="S8" t="s">
         <v>985</v>
       </c>
-      <c r="L8" t="s">
+      <c r="AA8" t="s">
         <v>986</v>
       </c>
-      <c r="N8" t="s">
+      <c r="AC8" t="s">
         <v>987</v>
       </c>
-      <c r="O8" t="s">
+      <c r="AD8" t="s">
         <v>988</v>
       </c>
-      <c r="P8" t="s">
+      <c r="AE8" t="s">
         <v>989</v>
       </c>
-      <c r="S8" t="s">
+      <c r="AG8" t="s">
         <v>990</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AH8" t="s">
+        <v>947</v>
+      </c>
+      <c r="AI8" t="s">
         <v>991</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AJ8" t="s">
         <v>992</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>993</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>994</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>995</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>952</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>996</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>997</v>
       </c>
       <c r="AK8" s="2">
         <v>0.69699999999999995</v>
@@ -59720,7 +59805,7 @@
         <v>298</v>
       </c>
       <c r="N9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O9" t="s">
         <v>299</v>
@@ -59761,67 +59846,67 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" t="s">
         <v>362</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>363</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" t="s">
         <v>364</v>
       </c>
-      <c r="E10" t="s">
-        <v>361</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>365</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>366</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>367</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>368</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>369</v>
       </c>
-      <c r="L10" t="s">
-        <v>370</v>
-      </c>
       <c r="N10" t="s">
+        <v>371</v>
+      </c>
+      <c r="O10" t="s">
         <v>372</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>373</v>
       </c>
-      <c r="P10" t="s">
+      <c r="AA10" t="s">
         <v>374</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>375</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>376</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>377</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG10" t="s">
         <v>378</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>379</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>380</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>381</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>382</v>
       </c>
       <c r="AK10" s="2">
         <v>0.51</v>
@@ -59832,73 +59917,73 @@
         <v>2018</v>
       </c>
       <c r="B11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" t="s">
         <v>494</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>491</v>
+      </c>
+      <c r="G11" t="s">
         <v>495</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>496</v>
       </c>
-      <c r="E11" t="s">
-        <v>493</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>497</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>498</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>499</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>500</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>501</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>502</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>503</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>504</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Z11" t="s">
         <v>505</v>
       </c>
-      <c r="P11" t="s">
+      <c r="AA11" t="s">
         <v>506</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AC11" t="s">
         <v>507</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>508</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
+        <v>550</v>
+      </c>
+      <c r="AG11" t="s">
         <v>509</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AH11" t="s">
         <v>510</v>
       </c>
-      <c r="AE11" t="s">
-        <v>552</v>
-      </c>
-      <c r="AG11" t="s">
+      <c r="AI11" t="s">
         <v>511</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
         <v>512</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>514</v>
       </c>
       <c r="AK11" s="2">
         <v>0.51900000000000002</v>
@@ -59909,80 +59994,80 @@
         <v>2019</v>
       </c>
       <c r="B12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C12" t="s">
+        <v>637</v>
+      </c>
+      <c r="D12" t="s">
         <v>638</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>639</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>640</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>641</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>642</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>643</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>644</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>645</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
+        <v>613</v>
+      </c>
+      <c r="N12" t="s">
         <v>646</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>647</v>
       </c>
-      <c r="M12" t="s">
-        <v>615</v>
-      </c>
-      <c r="N12" t="s">
-        <v>648</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="R12" s="49" t="s">
         <v>649</v>
-      </c>
-      <c r="R12" s="49" t="s">
-        <v>651</v>
       </c>
       <c r="S12" s="31"/>
       <c r="W12" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA12" t="s">
         <v>652</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AC12" s="49" t="s">
         <v>653</v>
       </c>
-      <c r="Z12" t="s">
-        <v>650</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
         <v>654</v>
       </c>
-      <c r="AC12" s="49" t="s">
+      <c r="AE12" t="s">
         <v>655</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AG12" t="s">
         <v>656</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AH12" t="s">
         <v>657</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AI12" t="s">
         <v>658</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
         <v>659</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>660</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>661</v>
       </c>
       <c r="AK12" s="2">
         <v>0.51900000000000002</v>
@@ -60066,7 +60151,7 @@
         <v>280</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>281</v>
@@ -60191,79 +60276,79 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F7" t="s">
+        <v>820</v>
+      </c>
+      <c r="G7" t="s">
+        <v>851</v>
+      </c>
+      <c r="I7" t="s">
         <v>852</v>
       </c>
-      <c r="F7" t="s">
-        <v>822</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="N7" t="s">
         <v>853</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>854</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>855</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>856</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
+        <v>782</v>
+      </c>
+      <c r="T7" t="s">
         <v>857</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>858</v>
       </c>
-      <c r="R7" t="s">
-        <v>784</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>859</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>860</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" t="s">
+        <v>845</v>
+      </c>
+      <c r="AA7" t="s">
         <v>861</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AB7" t="s">
         <v>862</v>
       </c>
-      <c r="Y7" t="s">
-        <v>847</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AE7" t="s">
         <v>863</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AH7" t="s">
         <v>865</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AJ7" t="s">
         <v>866</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AK7" t="s">
         <v>867</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AN7" t="s">
         <v>868</v>
       </c>
-      <c r="AK7" t="s">
-        <v>869</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>870</v>
-      </c>
       <c r="AP7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="AR7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -60271,82 +60356,82 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
+        <v>993</v>
+      </c>
+      <c r="E8" t="s">
+        <v>994</v>
+      </c>
+      <c r="F8" t="s">
+        <v>957</v>
+      </c>
+      <c r="G8" t="s">
+        <v>995</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>996</v>
+      </c>
+      <c r="N8" t="s">
+        <v>997</v>
+      </c>
+      <c r="O8" t="s">
         <v>998</v>
       </c>
-      <c r="E8" t="s">
+      <c r="P8" t="s">
         <v>999</v>
       </c>
-      <c r="F8" t="s">
-        <v>962</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="Q8" t="s">
         <v>1000</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="R8" s="31" t="s">
         <v>1001</v>
       </c>
-      <c r="N8" t="s">
+      <c r="U8" t="s">
         <v>1002</v>
       </c>
-      <c r="O8" t="s">
+      <c r="V8" t="s">
         <v>1003</v>
       </c>
-      <c r="P8" t="s">
+      <c r="X8" t="s">
         <v>1004</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Y8" t="s">
         <v>1005</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="AA8" t="s">
+        <v>958</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>950</v>
+      </c>
+      <c r="AC8" t="s">
         <v>1006</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AE8" t="s">
         <v>1007</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AF8" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AH8" t="s">
         <v>1009</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AJ8" t="s">
         <v>1010</v>
       </c>
-      <c r="AA8" t="s">
-        <v>963</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>955</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AK8" t="s">
         <v>1011</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AN8" t="s">
         <v>1012</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AP8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AR8" t="s">
         <v>1015</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -60354,85 +60439,85 @@
         <v>2017</v>
       </c>
       <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" t="s">
         <v>383</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>384</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>385</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>386</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>387</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>388</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>389</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>390</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>391</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>392</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>393</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>394</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>395</v>
       </c>
-      <c r="R9" t="s">
+      <c r="V9" t="s">
         <v>396</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>397</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA9" t="s">
         <v>398</v>
       </c>
-      <c r="Y9" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
         <v>399</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>400</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AH9" t="s">
         <v>402</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AK9" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN9" t="s">
         <v>403</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AP9" t="s">
         <v>403</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AP9" t="s">
-        <v>404</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AR9" t="s">
         <v>405</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -60440,76 +60525,76 @@
         <v>2018</v>
       </c>
       <c r="B10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" t="s">
         <v>515</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>516</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>517</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>518</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>519</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>520</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>521</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>522</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>523</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>524</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>525</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>526</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="X10" t="s">
         <v>527</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Y10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA10" t="s">
         <v>528</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AD10" t="s">
         <v>529</v>
       </c>
-      <c r="Y10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AE10" t="s">
         <v>530</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AN10" t="s">
         <v>532</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AP10" t="s">
+        <v>532</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AR10" t="s">
         <v>534</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>534</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -60517,88 +60602,88 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
+        <v>725</v>
+      </c>
+      <c r="C11" t="s">
+        <v>660</v>
+      </c>
+      <c r="D11" t="s">
+        <v>661</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>662</v>
+      </c>
+      <c r="G11" t="s">
+        <v>663</v>
+      </c>
+      <c r="I11" t="s">
+        <v>664</v>
+      </c>
+      <c r="J11" t="s">
+        <v>665</v>
+      </c>
+      <c r="K11" t="s">
+        <v>666</v>
+      </c>
+      <c r="L11" t="s">
+        <v>667</v>
+      </c>
+      <c r="M11" t="s">
+        <v>669</v>
+      </c>
+      <c r="N11" t="s">
+        <v>670</v>
+      </c>
+      <c r="O11" t="s">
+        <v>671</v>
+      </c>
+      <c r="P11" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>673</v>
+      </c>
+      <c r="R11" t="s">
+        <v>721</v>
+      </c>
+      <c r="V11" t="s">
+        <v>674</v>
+      </c>
+      <c r="X11" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>680</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>680</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>681</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>681</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AR11" t="s">
         <v>727</v>
-      </c>
-      <c r="C11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D11" t="s">
-        <v>663</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>664</v>
-      </c>
-      <c r="G11" t="s">
-        <v>665</v>
-      </c>
-      <c r="I11" t="s">
-        <v>666</v>
-      </c>
-      <c r="J11" t="s">
-        <v>667</v>
-      </c>
-      <c r="K11" t="s">
-        <v>668</v>
-      </c>
-      <c r="L11" t="s">
-        <v>669</v>
-      </c>
-      <c r="M11" t="s">
-        <v>671</v>
-      </c>
-      <c r="N11" t="s">
-        <v>672</v>
-      </c>
-      <c r="O11" t="s">
-        <v>673</v>
-      </c>
-      <c r="P11" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>675</v>
-      </c>
-      <c r="R11" t="s">
-        <v>723</v>
-      </c>
-      <c r="V11" t="s">
-        <v>676</v>
-      </c>
-      <c r="X11" t="s">
-        <v>677</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>678</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>679</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>680</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>682</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>682</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>683</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>683</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -60614,10 +60699,10 @@
   <dimension ref="A1:CR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="CH6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="CL7" sqref="CL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -60738,10 +60823,10 @@
       <c r="AC1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="87" t="s">
+      <c r="AD1" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="AE1" s="87"/>
+      <c r="AE1" s="90"/>
       <c r="AF1" s="12" t="s">
         <v>159</v>
       </c>
@@ -60751,18 +60836,18 @@
       <c r="AH1" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AI1" s="87" t="s">
+      <c r="AI1" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="AJ1" s="87"/>
+      <c r="AJ1" s="90"/>
       <c r="AK1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="87" t="s">
+      <c r="AL1" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
       <c r="AO1" s="12" t="s">
         <v>87</v>
       </c>
@@ -60772,10 +60857,10 @@
       <c r="AQ1" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AR1" s="87" t="s">
+      <c r="AR1" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="AS1" s="87"/>
+      <c r="AS1" s="90"/>
       <c r="AT1" s="23" t="s">
         <v>177</v>
       </c>
@@ -60882,7 +60967,7 @@
       </c>
     </row>
     <row r="2" spans="1:96" ht="108.75">
-      <c r="A2" s="88">
+      <c r="A2" s="91">
         <v>2012</v>
       </c>
       <c r="B2" s="16"/>
@@ -61074,7 +61159,7 @@
       <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:96">
-      <c r="A3" s="88"/>
+      <c r="A3" s="91"/>
       <c r="E3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -61347,58 +61432,58 @@
         <v>2015</v>
       </c>
       <c r="B6" t="s">
+        <v>875</v>
+      </c>
+      <c r="C6" t="s">
+        <v>872</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>877</v>
-      </c>
-      <c r="C6" t="s">
-        <v>874</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>876</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>879</v>
       </c>
       <c r="J6" s="74">
         <v>14.7</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M6" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="O6" s="21" t="s">
         <v>881</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>883</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>247</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="T6" s="5" t="s">
         <v>885</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>887</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>146</v>
@@ -61410,37 +61495,37 @@
         <v>146</v>
       </c>
       <c r="Y6" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="AB6" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="Z6" s="22" t="s">
+      <c r="AC6" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="AA6" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AE6" s="21" t="s">
         <v>890</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="AE6" s="21" t="s">
-        <v>892</v>
       </c>
       <c r="AF6" s="21" t="s">
         <v>245</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AH6" s="21" t="s">
         <v>246</v>
       </c>
       <c r="AI6" s="22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AJ6" s="21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AK6" s="22" t="s">
         <v>169</v>
@@ -61455,85 +61540,85 @@
         <v>169</v>
       </c>
       <c r="AO6" s="22" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AQ6" s="22" t="s">
         <v>169</v>
       </c>
       <c r="AR6" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AT6" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="AU6" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="AS6" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="AU6" s="5" t="s">
+      <c r="AV6" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AW6" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="AV6" s="20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AW6" s="5" t="s">
+      <c r="AY6" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="AZ6" s="21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="BA6" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="AY6" s="5" t="s">
+      <c r="BB6" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="AZ6" s="21" t="s">
-        <v>1057</v>
-      </c>
-      <c r="BA6" s="5" t="s">
+      <c r="BC6" s="21" t="s">
         <v>903</v>
-      </c>
-      <c r="BB6" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="BC6" s="21" t="s">
-        <v>905</v>
       </c>
       <c r="BE6" s="5" t="s">
         <v>200</v>
       </c>
       <c r="BF6" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="BG6" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="BH6" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BI6" s="20" t="s">
         <v>907</v>
       </c>
-      <c r="BH6" s="20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="BI6" s="20" t="s">
-        <v>909</v>
-      </c>
       <c r="BJ6" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="BK6" s="4" t="s">
         <v>282</v>
       </c>
       <c r="BM6" s="20" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="BN6" s="4" t="s">
         <v>203</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="BP6" s="5" t="s">
         <v>315</v>
       </c>
       <c r="BQ6" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BR6" s="20" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="BS6" s="4" t="s">
         <v>199</v>
@@ -61545,13 +61630,13 @@
         <v>199</v>
       </c>
       <c r="BW6" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="BX6" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="BY6" s="21" t="s">
         <v>914</v>
-      </c>
-      <c r="BX6" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="BY6" s="21" t="s">
-        <v>916</v>
       </c>
       <c r="BZ6" s="5" t="s">
         <v>287</v>
@@ -61560,37 +61645,37 @@
         <v>217</v>
       </c>
       <c r="CB6" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="CC6" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="CD6" s="20" t="s">
         <v>917</v>
       </c>
-      <c r="CC6" s="21" t="s">
+      <c r="CE6" s="21" t="s">
         <v>918</v>
       </c>
-      <c r="CD6" s="20" t="s">
+      <c r="CF6" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="CG6" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="CE6" s="21" t="s">
+      <c r="CH6" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="CF6" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="CG6" s="21" t="s">
+      <c r="CI6" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="CH6" s="21" t="s">
+      <c r="CJ6" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="CI6" s="21" t="s">
+      <c r="CL6" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="CJ6" s="20" t="s">
-        <v>924</v>
-      </c>
-      <c r="CL6" s="1" t="s">
-        <v>925</v>
-      </c>
       <c r="CM6" s="4" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="CN6" s="5" t="s">
         <v>146</v>
@@ -61613,46 +61698,46 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C7" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="D7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>1027</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>1032</v>
       </c>
       <c r="J7" s="82">
         <v>19.3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>285</v>
@@ -61661,10 +61746,10 @@
         <v>262</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>146</v>
@@ -61679,34 +61764,34 @@
         <v>146</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>146</v>
       </c>
       <c r="AB7" s="20" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="AE7" s="86" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AF7" s="21" t="s">
         <v>245</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="AH7" s="21" t="s">
         <v>246</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AJ7" s="21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AK7" s="22" t="s">
         <v>169</v>
@@ -61721,85 +61806,85 @@
         <v>169</v>
       </c>
       <c r="AO7" s="22" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="AQ7" s="22" t="s">
         <v>169</v>
       </c>
       <c r="AR7" s="5" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="AS7" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AV7" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AW7" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="AT7" s="5" t="s">
+      <c r="AY7" s="20" t="s">
         <v>1051</v>
       </c>
-      <c r="AU7" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AV7" s="21" t="s">
+      <c r="AZ7" s="21" t="s">
+        <v>1053</v>
+      </c>
+      <c r="BA7" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="AW7" s="5" t="s">
+      <c r="BB7" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="AY7" s="20" t="s">
+      <c r="BC7" s="21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="BE7" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="AZ7" s="21" t="s">
+      <c r="BF7" s="21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="BG7" s="21" t="s">
         <v>1058</v>
       </c>
-      <c r="BA7" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="BB7" s="5" t="s">
+      <c r="BH7" s="20" t="s">
         <v>1060</v>
       </c>
-      <c r="BC7" s="21" t="s">
-        <v>1034</v>
-      </c>
-      <c r="BE7" s="5" t="s">
+      <c r="BI7" s="21" t="s">
         <v>1061</v>
       </c>
-      <c r="BF7" s="21" t="s">
+      <c r="BJ7" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="BG7" s="21" t="s">
+      <c r="BK7" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="BH7" s="20" t="s">
+      <c r="BM7" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BN7" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="BI7" s="21" t="s">
+      <c r="BO7" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="BJ7" s="5" t="s">
+      <c r="BP7" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="BK7" s="4" t="s">
+      <c r="BQ7" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="BM7" s="20" t="s">
+      <c r="BR7" s="21" t="s">
         <v>1069</v>
-      </c>
-      <c r="BN7" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="BO7" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="BP7" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="BQ7" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="BR7" s="21" t="s">
-        <v>1074</v>
       </c>
       <c r="BS7" s="4" t="s">
         <v>199</v>
@@ -61811,52 +61896,52 @@
         <v>199</v>
       </c>
       <c r="BW7" s="20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="BX7" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="BY7" s="21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="BZ7" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="CA7" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="CB7" s="21" t="s">
         <v>1075</v>
       </c>
-      <c r="BX7" s="7" t="s">
+      <c r="CC7" s="21" t="s">
         <v>1076</v>
       </c>
-      <c r="BY7" s="21" t="s">
+      <c r="CD7" s="20" t="s">
         <v>1077</v>
       </c>
-      <c r="BZ7" s="5" t="s">
+      <c r="CE7" s="21" t="s">
         <v>1078</v>
       </c>
-      <c r="CA7" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="CB7" s="21" t="s">
+      <c r="CF7" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="CC7" s="21" t="s">
+      <c r="CG7" s="21" t="s">
         <v>1081</v>
       </c>
-      <c r="CD7" s="20" t="s">
+      <c r="CH7" s="21" t="s">
         <v>1082</v>
       </c>
-      <c r="CE7" s="21" t="s">
+      <c r="CI7" s="21" t="s">
         <v>1083</v>
       </c>
-      <c r="CF7" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="CG7" s="21" t="s">
-        <v>1086</v>
-      </c>
-      <c r="CH7" s="21" t="s">
-        <v>1087</v>
-      </c>
-      <c r="CI7" s="21" t="s">
-        <v>1088</v>
-      </c>
       <c r="CJ7" s="21" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>241</v>
       </c>
       <c r="CM7" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="CN7" s="5" t="s">
         <v>146</v>
@@ -61879,43 +61964,43 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" t="s">
         <v>407</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D8" t="s">
-        <v>538</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="I8" s="21" t="s">
         <v>412</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>413</v>
       </c>
       <c r="J8" s="64">
         <v>270.8</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="O8" s="21" t="s">
         <v>416</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>247</v>
@@ -61942,26 +62027,26 @@
         <v>146</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z8" s="20" t="s">
         <v>418</v>
-      </c>
-      <c r="Z8" s="20" t="s">
-        <v>419</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AC8" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE8" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="AF8" s="21" t="s">
         <v>245</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AH8" s="21" t="s">
         <v>246</v>
@@ -61994,73 +62079,73 @@
         <v>169</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AS8" s="4" t="s">
         <v>288</v>
       </c>
       <c r="AT8" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU8" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="AV8" s="4" t="s">
         <v>313</v>
       </c>
       <c r="AW8" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="AY8" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="AY8" s="20" t="s">
+      <c r="AZ8" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="AZ8" s="5" t="s">
+      <c r="BA8" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="BA8" s="5" t="s">
+      <c r="BB8" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="BB8" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="BC8" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BE8" s="5" t="s">
         <v>200</v>
       </c>
       <c r="BF8" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="BG8" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="BG8" s="5" t="s">
+      <c r="BH8" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="BI8" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="BH8" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="BI8" s="5" t="s">
+      <c r="BJ8" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="BK8" s="5" t="s">
         <v>266</v>
       </c>
       <c r="BM8" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="BN8" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="BN8" s="4" t="s">
+      <c r="BO8" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="BO8" s="5" t="s">
+      <c r="BP8" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="BP8" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="BR8" s="5" t="s">
         <v>251</v>
@@ -62075,13 +62160,13 @@
         <v>199</v>
       </c>
       <c r="BW8" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="BX8" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="BX8" s="5" t="s">
+      <c r="BY8" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="BY8" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="BZ8" s="5" t="s">
         <v>287</v>
@@ -62090,37 +62175,37 @@
         <v>217</v>
       </c>
       <c r="CB8" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="CC8" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="CC8" s="5" t="s">
+      <c r="CD8" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="CD8" s="5" t="s">
+      <c r="CE8" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="CF8" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="CE8" s="5" t="s">
+      <c r="CG8" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="CI8" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="CF8" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="CG8" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="CI8" s="5" t="s">
+      <c r="CJ8" s="20" t="s">
         <v>579</v>
-      </c>
-      <c r="CJ8" s="20" t="s">
-        <v>581</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>241</v>
       </c>
       <c r="CM8" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="CN8" s="5" t="s">
         <v>146</v>
@@ -62143,43 +62228,43 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D9" t="s">
-        <v>691</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>539</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G9" s="68">
         <v>0.51900000000000002</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J9" s="67">
         <v>352</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>247</v>
@@ -62200,32 +62285,32 @@
         <v>169</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AE9" s="21" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF9" s="21" t="s">
         <v>245</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AH9" s="21" t="s">
         <v>246</v>
@@ -62258,58 +62343,58 @@
         <v>169</v>
       </c>
       <c r="AR9" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AS9" s="5" t="s">
         <v>289</v>
       </c>
       <c r="AT9" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="AU9" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="AV9" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="AU9" s="5" t="s">
+      <c r="AW9" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="AV9" s="4" t="s">
+      <c r="AY9" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AW9" s="5" t="s">
+      <c r="AZ9" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="AY9" s="5" t="s">
+      <c r="BA9" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="BB9" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="AZ9" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="BA9" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="BB9" s="5" t="s">
+      <c r="BC9" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="BC9" s="21" t="s">
+      <c r="BE9" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="BE9" s="5" t="s">
-        <v>563</v>
-      </c>
       <c r="BF9" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="BG9" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="BH9" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="BG9" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="BH9" s="5" t="s">
-        <v>566</v>
-      </c>
       <c r="BI9" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="BJ9" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="BJ9" s="5" t="s">
-        <v>732</v>
-      </c>
       <c r="BK9" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="BM9" s="5" t="s">
         <v>240</v>
@@ -62318,13 +62403,13 @@
         <v>203</v>
       </c>
       <c r="BO9" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="BP9" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="BQ9" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="BQ9" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="BR9" s="5" t="s">
         <v>251</v>
@@ -62339,13 +62424,13 @@
         <v>199</v>
       </c>
       <c r="BW9" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="BX9" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="BY9" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="BX9" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="BY9" s="5" t="s">
-        <v>572</v>
       </c>
       <c r="BZ9" s="5" t="s">
         <v>287</v>
@@ -62354,37 +62439,37 @@
         <v>217</v>
       </c>
       <c r="CB9" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="CC9" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="CD9" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="CC9" s="5" t="s">
+      <c r="CE9" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="CD9" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="CE9" s="20" t="s">
+      <c r="CF9" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="CG9" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="CH9" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="CF9" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="CG9" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="CH9" s="5" t="s">
+      <c r="CI9" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="CI9" s="5" t="s">
+      <c r="CJ9" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="CL9" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="CJ9" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="CL9" s="1" t="s">
-        <v>582</v>
-      </c>
       <c r="CM9" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="CN9" s="5" t="s">
         <v>146</v>
@@ -62393,7 +62478,7 @@
         <v>146</v>
       </c>
       <c r="CP9" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="CQ9" s="5" t="s">
         <v>146</v>
@@ -62407,43 +62492,43 @@
         <v>2019</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C10" t="s">
+        <v>688</v>
+      </c>
+      <c r="D10" t="s">
         <v>690</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>692</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>693</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>694</v>
       </c>
       <c r="G10" s="68">
         <v>0.51900000000000002</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J10" s="71">
         <v>412.1</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L10" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="O10" s="21" t="s">
         <v>699</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>697</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>701</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>247</v>
@@ -62470,26 +62555,26 @@
         <v>169</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE10" s="5" t="s">
         <v>706</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="AE10" s="5" t="s">
-        <v>708</v>
       </c>
       <c r="AF10" s="21" t="s">
         <v>245</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AH10" s="21" t="s">
         <v>246</v>
@@ -62522,55 +62607,55 @@
         <v>169</v>
       </c>
       <c r="AR10" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="AT10" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="AS10" s="5" t="s">
+      <c r="AU10" s="5" t="s">
         <v>711</v>
-      </c>
-      <c r="AT10" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="AU10" s="5" t="s">
-        <v>713</v>
       </c>
       <c r="AV10" s="4" t="s">
         <v>313</v>
       </c>
       <c r="AW10" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="AY10" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="AZ10" s="21" t="s">
         <v>715</v>
       </c>
-      <c r="AY10" s="21" t="s">
-        <v>716</v>
-      </c>
-      <c r="AZ10" s="21" t="s">
+      <c r="BA10" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="BA10" s="5" t="s">
+      <c r="BB10" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="BC10" s="21" t="s">
         <v>719</v>
       </c>
-      <c r="BB10" s="5" t="s">
+      <c r="BE10" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="BC10" s="21" t="s">
-        <v>721</v>
-      </c>
-      <c r="BE10" s="5" t="s">
+      <c r="BF10" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="BF10" s="21" t="s">
-        <v>724</v>
-      </c>
       <c r="BG10" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="BH10" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="BI10" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="BJ10" s="5" t="s">
         <v>731</v>
-      </c>
-      <c r="BJ10" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="BK10" s="5" t="s">
         <v>266</v>
@@ -62582,16 +62667,16 @@
         <v>203</v>
       </c>
       <c r="BO10" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="BP10" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="BP10" s="4" t="s">
+      <c r="BQ10" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="BQ10" s="5" t="s">
-        <v>738</v>
-      </c>
       <c r="BR10" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="BS10" s="4" t="s">
         <v>199</v>
@@ -62603,52 +62688,52 @@
         <v>199</v>
       </c>
       <c r="BW10" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="BX10" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="BY10" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="BX10" s="20" t="s">
+      <c r="BZ10" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="BY10" s="5" t="s">
+      <c r="CA10" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="BZ10" s="5" t="s">
+      <c r="CB10" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="CC10" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="CA10" s="5" t="s">
+      <c r="CD10" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="CB10" s="21" t="s">
-        <v>721</v>
-      </c>
-      <c r="CC10" s="21" t="s">
+      <c r="CE10" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="CD10" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="CE10" s="5" t="s">
+      <c r="CF10" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="CG10" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="CF10" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="CG10" s="5" t="s">
+      <c r="CH10" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="CI10" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="CH10" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="CI10" s="21" t="s">
+      <c r="CJ10" s="21" t="s">
         <v>751</v>
-      </c>
-      <c r="CJ10" s="21" t="s">
-        <v>753</v>
       </c>
       <c r="CL10" s="1" t="s">
         <v>241</v>
       </c>
       <c r="CM10" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="CN10" s="5" t="s">
         <v>146</v>
@@ -62657,7 +62742,7 @@
         <v>146</v>
       </c>
       <c r="CP10" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="CQ10" s="5" t="s">
         <v>146</v>
@@ -62668,13 +62753,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BW1:CA1"/>
-    <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="CF1:CI1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BQ1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AR1:AS1"/>
@@ -62683,6 +62761,13 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="CB1:CE1"/>
+    <mergeCell ref="CF1:CI1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62746,10 +62831,10 @@
         <v>2015</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27.75">
@@ -62757,10 +62842,10 @@
         <v>2016</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -62796,10 +62881,10 @@
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -62840,37 +62925,37 @@
       <c r="B1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
       <c r="I1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
       <c r="M1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90" t="s">
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="90"/>
+      <c r="U1" s="92"/>
       <c r="V1" s="39" t="s">
         <v>249</v>
       </c>
@@ -62924,10 +63009,10 @@
       <c r="O2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="87" t="s">
+      <c r="P2" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" s="87"/>
+      <c r="Q2" s="90"/>
       <c r="R2" s="1" t="s">
         <v>118</v>
       </c>
@@ -63049,65 +63134,65 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="83" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="F6" s="83" t="s">
         <v>932</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="G6" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="H6" s="84" t="s">
         <v>934</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J6" s="41" t="s">
         <v>935</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>936</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>937</v>
       </c>
       <c r="K6" s="76"/>
       <c r="L6" s="83" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>929</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>939</v>
+        <v>927</v>
+      </c>
+      <c r="N6" s="103" t="s">
+        <v>1114</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="41" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="Q6" s="41" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="R6" s="41" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="S6" s="41"/>
       <c r="T6" s="78" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="U6" s="78" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="V6" s="38"/>
       <c r="W6" s="9" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="Y6" s="77" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="260.25" customHeight="1">
@@ -63116,65 +63201,65 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="83" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F7" s="83" t="s">
+      <c r="H7" s="84" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I7" s="87" t="s">
         <v>1100</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I7" s="101" t="s">
-        <v>1105</v>
-      </c>
       <c r="J7" s="41" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="K7" s="84"/>
       <c r="L7" s="84" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="41" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="Q7" s="41" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S7" s="41"/>
+      <c r="T7" s="88" t="s">
+        <v>1106</v>
+      </c>
+      <c r="U7" s="41" t="s">
         <v>1108</v>
-      </c>
-      <c r="R7" s="41" t="s">
-        <v>1110</v>
-      </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="102" t="s">
-        <v>1111</v>
-      </c>
-      <c r="U7" s="41" t="s">
-        <v>1113</v>
       </c>
       <c r="V7" s="38"/>
       <c r="W7" s="9" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="Y7" s="83" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="279.75" customHeight="1">
@@ -63182,63 +63267,63 @@
         <v>2017</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="E8" s="9"/>
       <c r="H8" s="5"/>
       <c r="I8" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="M8" s="41" t="s">
         <v>450</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>451</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>316</v>
       </c>
       <c r="O8" s="9"/>
       <c r="R8" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="S8" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="T8" s="66" t="s">
-        <v>454</v>
-      </c>
       <c r="U8" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y8" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Z8" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="AA8" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AB8" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="AB8" s="9" t="s">
+      <c r="AC8" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="AC8" s="9" t="s">
+      <c r="AD8" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="AD8" s="9" t="s">
-        <v>461</v>
-      </c>
       <c r="AE8" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="258" customHeight="1">
@@ -63246,65 +63331,65 @@
         <v>2018</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M9" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O9" s="9"/>
       <c r="R9" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="T9" s="66" t="s">
         <v>589</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="T9" s="66" t="s">
+      <c r="U9" s="41" t="s">
         <v>591</v>
-      </c>
-      <c r="U9" s="41" t="s">
-        <v>593</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="5"/>
       <c r="X9" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA9" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="Y9" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="Z9" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AA9" s="41" t="s">
+      <c r="AB9" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="AB9" s="41" t="s">
+      <c r="AC9" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD9" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="AC9" s="9" t="s">
+      <c r="AE9" s="9" t="s">
         <v>599</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="399" customHeight="1">
@@ -63312,70 +63397,70 @@
         <v>2019</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E10" s="9"/>
       <c r="H10" s="5"/>
       <c r="I10" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>758</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>760</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="41" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="T10" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="U10" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="V10" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>765</v>
       </c>
       <c r="W10" s="9"/>
       <c r="X10" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y10" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Z10" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA10" s="41" t="s">
         <v>768</v>
       </c>
-      <c r="Z10" s="9" t="s">
+      <c r="AB10" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="AA10" s="41" t="s">
+      <c r="AC10" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="AB10" s="9" t="s">
+      <c r="AD10" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="AC10" s="9" t="s">
+      <c r="AE10" s="9" t="s">
         <v>772</v>
-      </c>
-      <c r="AD10" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="AB11" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -63398,7 +63483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -63432,7 +63517,7 @@
         <v>2015</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="336.75">
@@ -63440,7 +63525,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="170.25">
@@ -63448,7 +63533,7 @@
         <v>2017</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="270.75">
@@ -63456,7 +63541,7 @@
         <v>2018</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="199.5">
@@ -63464,7 +63549,7 @@
         <v>2019</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/泸州老窖/财务指标_老窖.xlsx
+++ b/泸州老窖/财务指标_老窖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="折旧对比" sheetId="13" r:id="rId1"/>
@@ -253,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34400,7 +34400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1146">
   <si>
     <t>总资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68121,6 +68121,726 @@
     <t>公司正式员工总数为3228人
 (3.4-2.7+7.65) / 3228  人均薪酬25.9万
 董事、副总经理沈才洪减持46,125股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>166.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>60.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>49.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>350.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>230.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>35.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  21.3%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>40.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  24.5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>39.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  23.8%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  30.3%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  28.5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  25.1%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  26.5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  19.8%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>41.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  26.4%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>38.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  24.3%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>34.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  21.9%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>43.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  27.4%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  32.5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  26.7%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  22.6%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    18.3%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>33.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  25.8%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  23.4%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>28.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  21.7%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>37.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  29%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  30.4%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    26.1%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    22.1%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    21.5%</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68529,13 +69249,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -68544,7 +69264,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -68552,13 +69278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -68567,14 +69287,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -69017,7 +69737,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="117">
+      <c r="A5" s="108">
         <v>2012</v>
       </c>
       <c r="B5" s="4"/>
@@ -69025,7 +69745,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="117"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="13"/>
       <c r="C6" s="51"/>
       <c r="D6" s="4"/>
@@ -69033,7 +69753,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="117">
+      <c r="A7" s="108">
         <v>2013</v>
       </c>
       <c r="B7" s="1"/>
@@ -69041,7 +69761,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="117"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="4"/>
       <c r="C8" s="37"/>
       <c r="D8" s="4"/>
@@ -69049,22 +69769,22 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A9" s="117">
+      <c r="A9" s="108">
         <v>2014</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="118"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="110"/>
     </row>
     <row r="10" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A10" s="117"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="5"/>
       <c r="C10" s="41"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="118"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="110"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="117">
+      <c r="A11" s="108">
         <v>2015</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -69073,55 +69793,55 @@
       <c r="C11" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="116" t="s">
+      <c r="D11" s="103"/>
+      <c r="E11" s="109" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="163.5" customHeight="1">
-      <c r="A12" s="117"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="5" t="s">
         <v>461</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="116"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="108">
+      <c r="A13" s="113">
         <v>2016</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="111" t="s">
         <v>618</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="109" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="219" customHeight="1">
-      <c r="A14" s="108"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="112"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="108">
+      <c r="A15" s="113">
         <v>2017</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="111" t="s">
         <v>932</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="111" t="s">
         <v>775</v>
       </c>
       <c r="E15" s="114" t="s">
@@ -69129,25 +69849,25 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="222.75" customHeight="1">
-      <c r="A16" s="108"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="95" t="s">
         <v>776</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="115"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A17" s="108">
+      <c r="A17" s="113">
         <v>2018</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="111" t="s">
         <v>933</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="116" t="s">
         <v>294</v>
       </c>
       <c r="E17" s="114" t="s">
@@ -69155,42 +69875,58 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="225" customHeight="1">
-      <c r="A18" s="108"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="95" t="s">
         <v>934</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="108"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="115"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="108">
+      <c r="A19" s="113">
         <v>2019</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="111" t="s">
         <v>1108</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="111" t="s">
         <v>1109</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="117" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="184.5" customHeight="1">
-      <c r="A20" s="108"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="112"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="E11:E12"/>
@@ -69200,22 +69936,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69228,7 +69948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -69311,18 +70031,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="4" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
@@ -69469,31 +70189,186 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
-        <v>2019</v>
+      <c r="A11" t="s">
+        <v>1118</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>1138</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" t="s">
-        <v>321</v>
-      </c>
-      <c r="F11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G11">
-        <v>0.255</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>1119</v>
+      </c>
       <c r="B12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G21">
+        <v>0.28270000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
@@ -71579,37 +72454,37 @@
         <v>187</v>
       </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="105" t="s">
+      <c r="O1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
       <c r="S1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="105" t="s">
+      <c r="T1" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105" t="s">
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
       <c r="AB1" s="19" t="s">
         <v>155</v>
       </c>
       <c r="AC1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="103" t="s">
+      <c r="AD1" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="AE1" s="103"/>
+      <c r="AE1" s="104"/>
       <c r="AF1" s="12" t="s">
         <v>159</v>
       </c>
@@ -71619,18 +72494,18 @@
       <c r="AH1" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AI1" s="103" t="s">
+      <c r="AI1" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="AJ1" s="103"/>
+      <c r="AJ1" s="104"/>
       <c r="AK1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="103" t="s">
+      <c r="AL1" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
       <c r="AO1" s="12" t="s">
         <v>87</v>
       </c>
@@ -71640,10 +72515,10 @@
       <c r="AQ1" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AR1" s="103" t="s">
+      <c r="AR1" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="AS1" s="103"/>
+      <c r="AS1" s="104"/>
       <c r="AT1" s="23" t="s">
         <v>177</v>
       </c>
@@ -71673,56 +72548,56 @@
         <v>187</v>
       </c>
       <c r="BD1" s="24"/>
-      <c r="BE1" s="105" t="s">
+      <c r="BE1" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="BF1" s="105"/>
-      <c r="BG1" s="105"/>
+      <c r="BF1" s="103"/>
+      <c r="BG1" s="103"/>
       <c r="BH1" s="24" t="s">
         <v>189</v>
       </c>
       <c r="BI1" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="BJ1" s="105" t="s">
+      <c r="BJ1" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="BK1" s="105"/>
-      <c r="BL1" s="105"/>
-      <c r="BM1" s="105"/>
-      <c r="BN1" s="105"/>
-      <c r="BO1" s="105"/>
-      <c r="BP1" s="105" t="s">
+      <c r="BK1" s="103"/>
+      <c r="BL1" s="103"/>
+      <c r="BM1" s="103"/>
+      <c r="BN1" s="103"/>
+      <c r="BO1" s="103"/>
+      <c r="BP1" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="BQ1" s="105"/>
+      <c r="BQ1" s="103"/>
       <c r="BR1" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="BS1" s="105" t="s">
+      <c r="BS1" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="BT1" s="105"/>
-      <c r="BU1" s="105"/>
-      <c r="BW1" s="105" t="s">
+      <c r="BT1" s="103"/>
+      <c r="BU1" s="103"/>
+      <c r="BW1" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="BX1" s="105"/>
-      <c r="BY1" s="105"/>
-      <c r="BZ1" s="105"/>
-      <c r="CA1" s="105"/>
-      <c r="CB1" s="105" t="s">
+      <c r="BX1" s="103"/>
+      <c r="BY1" s="103"/>
+      <c r="BZ1" s="103"/>
+      <c r="CA1" s="103"/>
+      <c r="CB1" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="CC1" s="105"/>
-      <c r="CD1" s="105"/>
-      <c r="CE1" s="105"/>
-      <c r="CF1" s="105" t="s">
+      <c r="CC1" s="103"/>
+      <c r="CD1" s="103"/>
+      <c r="CE1" s="103"/>
+      <c r="CF1" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="CG1" s="105"/>
-      <c r="CH1" s="105"/>
-      <c r="CI1" s="105"/>
+      <c r="CG1" s="103"/>
+      <c r="CH1" s="103"/>
+      <c r="CI1" s="103"/>
       <c r="CJ1" s="24" t="s">
         <v>229</v>
       </c>
@@ -71750,7 +72625,7 @@
       </c>
     </row>
     <row r="2" spans="1:96" ht="108.75">
-      <c r="A2" s="104">
+      <c r="A2" s="105">
         <v>2012</v>
       </c>
       <c r="B2" s="16"/>
@@ -71942,7 +72817,7 @@
       <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:96">
-      <c r="A3" s="104"/>
+      <c r="A3" s="105"/>
       <c r="E3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -73540,13 +74415,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BW1:CA1"/>
-    <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="CF1:CI1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BQ1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AR1:AS1"/>
@@ -73555,6 +74423,13 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="CB1:CE1"/>
+    <mergeCell ref="CF1:CI1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -73764,15 +74639,15 @@
       <c r="X1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="105" t="s">
+      <c r="Y1" s="103" t="s">
         <v>284</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
     </row>
     <row r="2" spans="1:31" ht="41.25" customHeight="1">
       <c r="C2" s="1" t="s">
@@ -73808,10 +74683,10 @@
       <c r="O2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="103" t="s">
+      <c r="P2" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="104"/>
       <c r="R2" s="1" t="s">
         <v>118</v>
       </c>
